--- a/data/pml_bodies_summary.xlsx
+++ b/data/pml_bodies_summary.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pallavisingh/Documents/Data Science/lung_cancer_detection/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B25AF98C-2EBA-5D41-B95B-B171D598CBF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="28560" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -151,8 +157,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -215,13 +221,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -259,7 +273,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -293,6 +307,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -327,9 +342,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -502,14 +518,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="165" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="26" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -523,7 +547,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -537,7 +561,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -551,7 +575,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -565,7 +589,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -579,7 +603,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -593,7 +617,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -607,7 +631,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -621,7 +645,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -635,7 +659,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -649,7 +673,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -663,7 +687,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -677,7 +701,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -691,7 +715,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -705,7 +729,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -719,7 +743,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -733,7 +757,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -747,7 +771,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -761,7 +785,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -775,7 +799,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -789,7 +813,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -803,7 +827,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -817,7 +841,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -831,7 +855,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -845,7 +869,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -859,7 +883,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -873,7 +897,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -887,7 +911,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -901,7 +925,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -915,7 +939,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -929,7 +953,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -943,7 +967,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>34</v>
       </c>
@@ -957,7 +981,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>35</v>
       </c>
@@ -971,7 +995,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>36</v>
       </c>
@@ -985,7 +1009,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -999,7 +1023,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>38</v>
       </c>
@@ -1013,7 +1037,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>39</v>
       </c>
@@ -1027,7 +1051,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>40</v>
       </c>
@@ -1041,7 +1065,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>41</v>
       </c>
@@ -1055,7 +1079,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>42</v>
       </c>
@@ -1069,7 +1093,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>43</v>
       </c>
